--- a/examples/SBB/model_config.SBB.parameter_template.xlsx
+++ b/examples/SBB/model_config.SBB.parameter_template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
   <si>
     <t>class</t>
   </si>
@@ -45,6 +45,9 @@
     <t>comment</t>
   </si>
   <si>
+    <t>include</t>
+  </si>
+  <si>
     <t>global</t>
   </si>
   <si>
@@ -123,7 +126,7 @@
     <t>phi</t>
   </si>
   <si>
-    <t>dimentionless</t>
+    <t>dimensionless</t>
   </si>
   <si>
     <t>return a depth-dependent porosity profile, if the functions requires external constants, enter in the row underneath</t>
@@ -153,6 +156,9 @@
     <t>Dbt</t>
   </si>
   <si>
+    <t>cm^2/yr</t>
+  </si>
+  <si>
     <t>return a depth-dependent bioturbation profile, if the functions requires external constants, enter in the row underneath</t>
   </si>
   <si>
@@ -160,6 +166,9 @@
   </si>
   <si>
     <t>Dbir</t>
+  </si>
+  <si>
+    <t>yr^-1</t>
   </si>
   <si>
     <t>return a depth-dependent bioirrigation profile, if the functions requires external constants, enter in the row underneath</t>
@@ -1081,13 +1090,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1106,1823 +1115,2147 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>48</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>71</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>80</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>84</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>86</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>88</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>90</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>92</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>94</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>96</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>98</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>100</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>102</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>104</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>106</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>108</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>110</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>114</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>116</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>118</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F48" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>120</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>122</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F50" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>125</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F51" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>127</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F52" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>129</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F53" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>131</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>133</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D55"/>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F55" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>135</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F56" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>137</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F57" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>139</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>142</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>144</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>146</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>148</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>150</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>152</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>154</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>156</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>158</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>160</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>162</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>164</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>164</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>164</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>168</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>170</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>172</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>174</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>176</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>178</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>180</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>182</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>184</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>186</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>188</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>190</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>192</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>194</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>196</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>198</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>200</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>202</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>204</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>204</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>207</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>209</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>211</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>213</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>215</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>219</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>221</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
       <c r="F100" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>223</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>225</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>227</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>229</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>231</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>233</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>233</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>235</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108" t="s">
-        <v>234</v>
+        <v>237</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
